--- a/biology/Histoire de la zoologie et de la botanique/George_Philip_Farran/George_Philip_Farran.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/George_Philip_Farran/George_Philip_Farran.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Philip Farran (né à Templeogue en Irlande le 21 novembre 1876 et mort à Templeogue en Irlande le 5 janvier 1949) est un zoologiste irlandais spécialiste du plancton.
 </t>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils aîné d'Edmond Chomley Farran et de son épouse Anne Hume (née Ryan), George Philip Farran est né à Templeogue (Irlande) le 21 novembre 1876[1].
-Il étudie à l'école du révérend Benson à Rathmines, Dublin, puis entre au Trinity College de Dublin pour y étudier le droit en 1895[1]. Après de brillantes études universitaires, il est diplômé avec la médaille d'or en sciences naturelles[1].
-En 1898[1], il rejoint un petit groupe de scientifiques travaillant, sous la direction de Ernest William Lyons Holt, sur les problèmes de pêche et de biologie marine en Irlande[2]. Ce petit groupe comporte notamment Walter Medley Tattersall[1], Stanley Wells Kemp[1] et son beau-frère Charles Green[1],[3] fils de William Spotswood Green[3]. Puis, en 1900, il entre au service du Département de l'agriculture et de l'enseignement technique en tant que naturaliste[2],[1].
-Son frère, le capitaine Edmond Chomley Lambert Farran, est tué le 16 juin 1915 à Hooge (Belgique) lors de la deuxième bataille d'Ypres[4].
-Il épouse, en 1920, Georgina Margaret Craig dont il aura un fils et une fille[1].
-Il a été inspecteur en chef des pêcheries de 1938 à son départ à la retraite en 1946[5],[2].
-Il est décédé le 5 janvier 1949 dans sa maison de Templeogue (comté de Dublin, Irlande) à l'age de 72 ans[2],[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils aîné d'Edmond Chomley Farran et de son épouse Anne Hume (née Ryan), George Philip Farran est né à Templeogue (Irlande) le 21 novembre 1876.
+Il étudie à l'école du révérend Benson à Rathmines, Dublin, puis entre au Trinity College de Dublin pour y étudier le droit en 1895. Après de brillantes études universitaires, il est diplômé avec la médaille d'or en sciences naturelles.
+En 1898, il rejoint un petit groupe de scientifiques travaillant, sous la direction de Ernest William Lyons Holt, sur les problèmes de pêche et de biologie marine en Irlande. Ce petit groupe comporte notamment Walter Medley Tattersall, Stanley Wells Kemp et son beau-frère Charles Green, fils de William Spotswood Green. Puis, en 1900, il entre au service du Département de l'agriculture et de l'enseignement technique en tant que naturaliste,.
+Son frère, le capitaine Edmond Chomley Lambert Farran, est tué le 16 juin 1915 à Hooge (Belgique) lors de la deuxième bataille d'Ypres.
+Il épouse, en 1920, Georgina Margaret Craig dont il aura un fils et une fille.
+Il a été inspecteur en chef des pêcheries de 1938 à son départ à la retraite en 1946,.
+Il est décédé le 5 janvier 1949 dans sa maison de Templeogue (comté de Dublin, Irlande) à l'age de 72 ans,.
 </t>
         </is>
       </c>
@@ -548,14 +562,51 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Si les premiers articles scientifiques de George Philip Farran couvraient un large champ de la zoologie marine, il a ensuite plus ou moins restreint ses activités à l'étude des organismes planctoniques, avec en particulier les copépodes, et des harengs irlandais[2],[1]. 
-Spécialiste reconnu du plancton, il a représenté l'Irlande aux réunions annuelles du Conseil international pour l'exploration de la mer pendant plus de vingt-cinq ans[2] entre 1920 et 1946[1]. 
-Titulaire d'un Bachelor of Arts, George Philip Farran n'a jamais demandé le diplôme de doctorat sur titre auquel il aurait pu prétendre[1].
-Il a été élu membre de l'Académie royale d'Irlande (Royal Irish Academy) en 1912[2],[1] et membre honoraire de la Challenger Society for Marine Science en 1948[1] pour son travail en biologie marine[2].
-Héritage naturaliste
-George Philip Farran est l'auteur de la description originale d'organismes marins.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si les premiers articles scientifiques de George Philip Farran couvraient un large champ de la zoologie marine, il a ensuite plus ou moins restreint ses activités à l'étude des organismes planctoniques, avec en particulier les copépodes, et des harengs irlandais,. 
+Spécialiste reconnu du plancton, il a représenté l'Irlande aux réunions annuelles du Conseil international pour l'exploration de la mer pendant plus de vingt-cinq ans entre 1920 et 1946. 
+Titulaire d'un Bachelor of Arts, George Philip Farran n'a jamais demandé le diplôme de doctorat sur titre auquel il aurait pu prétendre.
+Il a été élu membre de l'Académie royale d'Irlande (Royal Irish Academy) en 1912, et membre honoraire de la Challenger Society for Marine Science en 1948 pour son travail en biologie marine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>George_Philip_Farran</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/George_Philip_Farran</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Héritage naturaliste</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">George Philip Farran est l'auteur de la description originale d'organismes marins.
 o Genres
 Bathyidia Farran, 1926
 Brachycalanus Farran, 1905
@@ -671,8 +722,43 @@
 Xanthocalanus obtusus Farran, 1904
 Xanthocalanus pinguis Farran, 1905
 Xanthocalanus squamatus Farran, 1936
-Hommages
-Rendant hommage à son travail, des genres et des espèces de crustacés appartenant principalement à la sous-classe des copépodes ont été nommés en son honneur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>George_Philip_Farran</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/George_Philip_Farran</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hommages</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rendant hommage à son travail, des genres et des espèces de crustacés appartenant principalement à la sous-classe des copépodes ont été nommés en son honneur.
 Farrania Sars, 1920 (ordre des Calanoida, famille des Aetideidae)
 Farranula Wilson, 1932 (ordre des Cyclopoida, famille des Corycaeidae)
 Amallothrix farrani Rose, 1942 (ordre des Calanoida, famille des Scolecitrichidae)
@@ -681,7 +767,7 @@
 Euaugaptilus farrani Sars G.O., 1920 (ordre des Calanoida, famille des Augaptilidae)
 Labidocera farrani Greenwood &amp; Othman, 1979 (ordre des Calanoida, famille des Pontellidae)
 Laophonte farrani Roe, 1958 (ordre des Harpacticoida, famille des Laophontidae)
-Mysidetes farrani (Holt &amp; Tattersall, 1905)[6] (ordre des Malacostraca, famille des Malacostraca)
+Mysidetes farrani (Holt &amp; Tattersall, 1905) (ordre des Malacostraca, famille des Malacostraca)
 Neoscolecithrix farrani Smirnov, 1935 (ordre des Calanoida, famille des Tharybidae)
 Oithona farrani (Brady, 1915) (ordre des Cyclopoida, famille des Oithonidae)
 Paraeuchaeta barbata farrani With, 1915 (ordre des Calanoida, famille des Euchaetidae)
@@ -689,10 +775,45 @@
 Scaphocalanus farrani Park, 1982 (ordre des Calanoida, famille des Scolecitrichidae)
 Scopalatum farrani Roe, 1975 (ordre des Calanoida, famille des Scolecitrichidae)
 Scottocalanus farrani Scott A., 1909 (ordre des Calanoida, famille des Scolecitrichidae)
-Il est à noter que le gastéropode Amphorina farrani (Alder &amp; Hancock, 1844) n'a pas été nommé en l'honneur de George Philip Farran mais d'un homonyme[7].
-Un laboratoire de recherche en zoologie marine (The Farran Laboratory) situé à Newport (Comté de Mayo, Irlande) a été nommé en son honneur en 1957[5].
-Liste d'ouvrages
-Farran, G.P. 1894. Cirrhoedia xerampelina and Triphosia dubitata in Co. Dublin. Irish Naturalist, 3: 243.
+Il est à noter que le gastéropode Amphorina farrani (Alder &amp; Hancock, 1844) n'a pas été nommé en l'honneur de George Philip Farran mais d'un homonyme.
+Un laboratoire de recherche en zoologie marine (The Farran Laboratory) situé à Newport (Comté de Mayo, Irlande) a été nommé en son honneur en 1957.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>George_Philip_Farran</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/George_Philip_Farran</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste d'ouvrages</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Farran, G.P. 1894. Cirrhoedia xerampelina and Triphosia dubitata in Co. Dublin. Irish Naturalist, 3: 243.
 Farran, G.P. 1896. The grasshopper warbler in Co. Dublin. Irish Naturalist, 5: 191.
 Farran, G.P. 1903. Record of the Copepoda taken on the mackerel fishing grounds off Cleggan, Co. Galway, in 1901. Annual Report of Fisheries, Ireland : 105-122.
 Farran, G.P. 1905. Report on the Copepoda of the Atlantic slope off counties Mayo and Galway. Annual Report of Fisheries, Ireland, 2(6): 23-52.
